--- a/Matriz de Responsabilidades.xlsx
+++ b/Matriz de Responsabilidades.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="I33" sqref="H32:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +881,9 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -999,10 +1002,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1013,10 +1016,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1027,10 +1030,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1044,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/Matriz de Responsabilidades.xlsx
+++ b/Matriz de Responsabilidades.xlsx
@@ -71,9 +71,6 @@
     <t xml:space="preserve">      Identificar Riscos</t>
   </si>
   <si>
-    <t xml:space="preserve">      Análise quantitativa dos riscos</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Desenvolvimento de respostas aos riscos</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t xml:space="preserve">      Desenvolvimento dos métodos para as funções adicionais do admin</t>
   </si>
   <si>
-    <t xml:space="preserve">      Desenvolvimento dos métodos para as funções adicionais do funções</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Teste</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>3-40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Análise quanlitativa dos riscos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Desenvolvimento dos métodos para as funções adicionais ds funcionários</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="H32:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -844,22 +844,22 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1083,12 +1083,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1102,12 +1102,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1164,12 +1164,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1211,17 +1211,17 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1235,12 +1235,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1314,17 +1314,17 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
